--- a/Matt_Matlab/Data Compilation for Paper/Supplementary_Materials_10_13.xlsx
+++ b/Matt_Matlab/Data Compilation for Paper/Supplementary_Materials_10_13.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="15315" windowHeight="27375" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="15315" windowHeight="27375"/>
   </bookViews>
   <sheets>
-    <sheet name="References" sheetId="3" r:id="rId1"/>
-    <sheet name="Reactions" sheetId="4" r:id="rId2"/>
-    <sheet name="Metabolites" sheetId="5" r:id="rId3"/>
+    <sheet name="Reactions" sheetId="4" r:id="rId1"/>
+    <sheet name="Metabolites" sheetId="5" r:id="rId2"/>
+    <sheet name="References" sheetId="3" r:id="rId3"/>
     <sheet name="FVA on H2" sheetId="6" r:id="rId4"/>
     <sheet name="FVA on Formate" sheetId="7" r:id="rId5"/>
   </sheets>
@@ -18224,1440 +18224,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
-  <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>2904</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>2905</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2906</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2907</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>2908</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2909</v>
-      </c>
-      <c r="C2" s="9">
-        <v>2004</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>2911</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2912</v>
-      </c>
-      <c r="C3" s="7">
-        <v>2007</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2913</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>2914</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>2915</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2006</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>2916</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>2917</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>2918</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2015</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>2919</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>2920</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>2921</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1997</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>2922</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>2923</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>2915</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2004</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>2925</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2006</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>2926</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>2927</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2010</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>2928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>2929</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2006</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>2919</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>2930</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>2929</v>
-      </c>
-      <c r="C11" s="7">
-        <v>2008</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>2919</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>2931</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>2932</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2002</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>2933</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>2934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>2932</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2001</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>2935</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>2936</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>2937</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2000</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>2938</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>2939</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>2940</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2013</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>2941</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>2942</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>2932</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2002</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>2943</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>2944</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>2945</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1998</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>2919</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>2946</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>2945</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2000</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>2938</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>2948</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2008</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>2933</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>2949</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>2950</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2005</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>2951</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>2953</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2014</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>2919</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>2954</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>2925</v>
-      </c>
-      <c r="C22" s="7">
-        <v>2007</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>2919</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>2955</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>2956</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2009</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>2919</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>2957</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>2958</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2012</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>2959</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>2960</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>2961</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1999</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>2962</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>2963</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>2964</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1987</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>2935</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>2965</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>2932</v>
-      </c>
-      <c r="C27" s="7">
-        <v>2003</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>2966</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>2967</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>2925</v>
-      </c>
-      <c r="C28" s="7">
-        <v>2008</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>2919</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>2968</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>2937</v>
-      </c>
-      <c r="C29" s="7">
-        <v>2002</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>2919</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>2969</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>2970</v>
-      </c>
-      <c r="C30" s="7">
-        <v>2003</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>2919</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>2971</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>2970</v>
-      </c>
-      <c r="C31" s="7">
-        <v>2003</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>2972</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>2973</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>2974</v>
-      </c>
-      <c r="C32" s="7">
-        <v>2005</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>2975</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>2976</v>
-      </c>
-      <c r="C33" s="7">
-        <v>2008</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>2977</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>2978</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2015</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>2979</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>2980</v>
-      </c>
-      <c r="C35" s="7">
-        <v>2012</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>2981</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>2982</v>
-      </c>
-      <c r="C36" s="7">
-        <v>2013</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>2983</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>2984</v>
-      </c>
-      <c r="C37" s="7">
-        <v>2009</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>2916</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>2986</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1998</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>2987</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>2988</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>2989</v>
-      </c>
-      <c r="C39" s="7">
-        <v>2003</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>2966</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>2990</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>2991</v>
-      </c>
-      <c r="C40" s="7">
-        <v>2010</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>2913</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>2992</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>2993</v>
-      </c>
-      <c r="C41" s="7">
-        <v>2003</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>2994</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>2909</v>
-      </c>
-      <c r="C42" s="7">
-        <v>2008</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>2995</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>2996</v>
-      </c>
-      <c r="C43" s="7">
-        <v>2007</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>2997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C44" s="7">
-        <v>2010</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>3000</v>
-      </c>
-      <c r="C45" s="7">
-        <v>2010</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>2972</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>2929</v>
-      </c>
-      <c r="C46" s="7">
-        <v>2011</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>2919</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>3002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>3003</v>
-      </c>
-      <c r="C47" s="7">
-        <v>2012</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>2972</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>3004</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>3000</v>
-      </c>
-      <c r="C48" s="7">
-        <v>2013</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>3005</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>3006</v>
-      </c>
-      <c r="C49" s="7">
-        <v>2011</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>2972</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>3008</v>
-      </c>
-      <c r="C50" s="7">
-        <v>2015</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>3009</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>3008</v>
-      </c>
-      <c r="C51" s="7">
-        <v>2014</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>2919</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
-        <v>51</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>3011</v>
-      </c>
-      <c r="C52" s="7">
-        <v>1998</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>3012</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>3013</v>
-      </c>
-      <c r="C53" s="7">
-        <v>1999</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>3014</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
-        <v>53</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>3015</v>
-      </c>
-      <c r="C54" s="7">
-        <v>1996</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>3016</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>3017</v>
-      </c>
-      <c r="C55" s="7">
-        <v>2002</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>3018</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
-        <v>55</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>3019</v>
-      </c>
-      <c r="C56" s="7">
-        <v>1987</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>3020</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
-        <v>56</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>3021</v>
-      </c>
-      <c r="C57" s="7">
-        <v>2002</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>2966</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>3022</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
-        <v>57</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>2932</v>
-      </c>
-      <c r="C58" s="7">
-        <v>2002</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>3023</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>3024</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
-        <v>58</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>3025</v>
-      </c>
-      <c r="C59" s="7">
-        <v>2002</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>3027</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
-        <v>59</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>2945</v>
-      </c>
-      <c r="C60" s="7">
-        <v>1999</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
-        <v>60</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>3029</v>
-      </c>
-      <c r="C61" s="7">
-        <v>2004</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>3030</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>3031</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
-        <v>61</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>3032</v>
-      </c>
-      <c r="C62" s="7">
-        <v>1994</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>3033</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
-        <v>62</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>3035</v>
-      </c>
-      <c r="C63" s="7">
-        <v>1999</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>2919</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
-        <v>63</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>3037</v>
-      </c>
-      <c r="C64" s="7">
-        <v>2010</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>2916</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>3038</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
-        <v>64</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>3039</v>
-      </c>
-      <c r="C65" s="7">
-        <v>2006</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>2972</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
-        <v>65</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>3041</v>
-      </c>
-      <c r="C66" s="7">
-        <v>2010</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>2916</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>3042</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
-        <v>66</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>3043</v>
-      </c>
-      <c r="C67" s="7">
-        <v>2000</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>2913</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>3044</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="7">
-        <v>67</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>3045</v>
-      </c>
-      <c r="C68" s="7">
-        <v>1999</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>3046</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
-        <v>68</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>3047</v>
-      </c>
-      <c r="C69" s="7">
-        <v>2007</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>3048</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>3049</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="7">
-        <v>69</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>3050</v>
-      </c>
-      <c r="C70" s="7">
-        <v>2011</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>3051</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="7">
-        <v>70</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>2925</v>
-      </c>
-      <c r="C71" s="7">
-        <v>2006</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="7">
-        <v>71</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>3054</v>
-      </c>
-      <c r="C72" s="7">
-        <v>2011</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>3055</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>3056</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
-        <v>72</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>3057</v>
-      </c>
-      <c r="C73" s="7">
-        <v>2004</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>3058</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="7">
-        <v>73</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>3059</v>
-      </c>
-      <c r="C74" s="7">
-        <v>2004</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>3060</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>3061</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
-        <v>74</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>3047</v>
-      </c>
-      <c r="C75" s="7">
-        <v>2002</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>2935</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>3062</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="7">
-        <v>75</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>3063</v>
-      </c>
-      <c r="C76" s="7">
-        <v>2001</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>2919</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>3064</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="7">
-        <v>76</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>3065</v>
-      </c>
-      <c r="C77" s="7">
-        <v>2004</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>3066</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="7">
-        <v>77</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>3067</v>
-      </c>
-      <c r="C78" s="7">
-        <v>2014</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>3068</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>3069</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
-        <v>78</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C79" s="7">
-        <v>2003</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>3071</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="7">
-        <v>79</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>2961</v>
-      </c>
-      <c r="C80" s="7">
-        <v>2010</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>3072</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>3073</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="18">
-        <v>80</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>3098</v>
-      </c>
-      <c r="C81" s="18">
-        <v>2012</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>3099</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="18">
-        <v>81</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>3104</v>
-      </c>
-      <c r="C82" s="7">
-        <v>1998</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>3023</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>3105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="18">
-        <v>82</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>3106</v>
-      </c>
-      <c r="C83" s="7">
-        <v>2010</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>3107</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M707"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B712" sqref="B712"/>
     </sheetView>
   </sheetViews>
@@ -45159,7 +43728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F719"/>
   <sheetViews>
@@ -45168,6 +43737,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -58222,6 +56795,1437 @@
       </c>
       <c r="E719" s="1">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2906</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2007</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2006</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2015</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1997</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2004</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2006</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2927</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2010</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2006</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2008</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2002</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>2933</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2001</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>2938</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2013</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>2941</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2002</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1998</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>2938</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2008</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>2933</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2005</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>2951</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2014</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2007</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2009</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2012</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>2961</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1999</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>2962</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>2964</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1987</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2003</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2008</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2002</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2003</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2003</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>2972</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2005</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2008</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2015</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>2980</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2012</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2013</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2009</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1998</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>2987</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2003</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2010</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C41" s="7">
+        <v>2003</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2008</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C43" s="7">
+        <v>2007</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C44" s="7">
+        <v>2010</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C45" s="7">
+        <v>2010</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>2972</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C46" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2012</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>2972</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C48" s="7">
+        <v>2013</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C49" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>2972</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C50" s="7">
+        <v>2015</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C51" s="7">
+        <v>2014</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C52" s="7">
+        <v>1998</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1999</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1996</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C55" s="7">
+        <v>2002</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C56" s="7">
+        <v>1987</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C57" s="7">
+        <v>2002</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C58" s="7">
+        <v>2002</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>3023</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C59" s="7">
+        <v>2002</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C60" s="7">
+        <v>1999</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>3029</v>
+      </c>
+      <c r="C61" s="7">
+        <v>2004</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>3030</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1994</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>3033</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C63" s="7">
+        <v>1999</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>3037</v>
+      </c>
+      <c r="C64" s="7">
+        <v>2010</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C65" s="7">
+        <v>2006</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>2972</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C66" s="7">
+        <v>2010</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C67" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>3045</v>
+      </c>
+      <c r="C68" s="7">
+        <v>1999</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C69" s="7">
+        <v>2007</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>3050</v>
+      </c>
+      <c r="C70" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>3051</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C71" s="7">
+        <v>2006</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>3054</v>
+      </c>
+      <c r="C72" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>3057</v>
+      </c>
+      <c r="C73" s="7">
+        <v>2004</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C74" s="7">
+        <v>2004</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>3060</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C75" s="7">
+        <v>2002</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C76" s="7">
+        <v>2001</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C77" s="7">
+        <v>2004</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C78" s="7">
+        <v>2014</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>3068</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C79" s="7">
+        <v>2003</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>2961</v>
+      </c>
+      <c r="C80" s="7">
+        <v>2010</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>3072</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="18">
+        <v>80</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C81" s="18">
+        <v>2012</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>3099</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="18">
+        <v>81</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C82" s="7">
+        <v>1998</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>3023</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="18">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>3106</v>
+      </c>
+      <c r="C83" s="7">
+        <v>2010</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>3107</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>3108</v>
       </c>
     </row>
   </sheetData>
@@ -66008,7 +66012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>

--- a/Matt_Matlab/Data Compilation for Paper/Supplementary_Materials_10_13.xlsx
+++ b/Matt_Matlab/Data Compilation for Paper/Supplementary_Materials_10_13.xlsx
@@ -18227,14 +18227,21 @@
   <dimension ref="A1:M707"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B712" sqref="B712"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9.140625" style="4"/>
-    <col min="8" max="10" width="9.140625" style="15"/>
+    <col min="2" max="2" width="21.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="15" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.5703125" style="15" bestFit="1" customWidth="1"/>
